--- a/data/trans_dic/P55$pareja-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P55$pareja-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.09653033727343655</v>
+        <v>0.1031038681926601</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.08948458715577844</v>
+        <v>0.08793720456937626</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.3637450452720282</v>
+        <v>0.3623773157204912</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06666621732899193</v>
+        <v>0.07014784745118739</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.04661602116199326</v>
+        <v>0.04733657581038019</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09783567595137913</v>
+        <v>0.09308800631054114</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09338294999258887</v>
+        <v>0.09162525768784438</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.0742668588103043</v>
+        <v>0.07516679547668716</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.08250085791345553</v>
+        <v>0.08717123189679619</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2328690850056121</v>
+        <v>0.2400336355177993</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7736180513909675</v>
+        <v>0.7786055924756928</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4964661556605262</v>
+        <v>0.4258578283750496</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6404783291533312</v>
+        <v>0.6406053977482714</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.6669024395457046</v>
+        <v>0.6568352282317782</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.4660178093906601</v>
+        <v>0.5376584772690683</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3555022201270009</v>
+        <v>0.3563633196851475</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.4279876149044321</v>
+        <v>0.4618393085112374</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.282458988434007</v>
+        <v>0.2837745615194634</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4718550566264</v>
+        <v>0.5124278514053965</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3058838511195028</v>
+        <v>0.3224240751075655</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.4178350994663934</v>
+        <v>0.4034087950764564</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4238612255837095</v>
+        <v>0.4238012220302115</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.1608348323967743</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.1773689578110729</v>
+        <v>0.1773689578110728</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1909265989707878</v>
+        <v>0.1819848140531342</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3005705036955196</v>
+        <v>0.2814624374071355</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.08147687999118806</v>
+        <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1134053332503111</v>
+        <v>0.1634026609824736</v>
       </c>
       <c r="G8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.04868721294749485</v>
+        <v>0.02691075334514473</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0343911053986683</v>
+        <v>0.03549817336105982</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06965547665149165</v>
+        <v>0.07079486768420774</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1227186648815707</v>
+        <v>0.1080508313091459</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1616739791394552</v>
+        <v>0.1684960226581033</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.06821226109987481</v>
+        <v>0.07172572972271725</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1102653169027595</v>
+        <v>0.1109675940293059</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.6931502488848401</v>
+        <v>0.6949830859127707</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.7762949698375191</v>
+        <v>0.7879151902139522</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5973995748825981</v>
+        <v>0.5475448223759953</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.5638508960960824</v>
+        <v>0.6008431060019294</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2834281395365893</v>
+        <v>0.3224621808826821</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.2574790366879395</v>
+        <v>0.2552727903408323</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2939528702501954</v>
+        <v>0.3090458707378372</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2155847182465216</v>
+        <v>0.2090909846793714</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3934480469832268</v>
+        <v>0.3961022150740506</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.4148237356510447</v>
+        <v>0.4214187027201857</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3033314379362197</v>
+        <v>0.2876920049421913</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.256655304859082</v>
+        <v>0.2654088531219949</v>
       </c>
     </row>
     <row r="10">
@@ -980,38 +980,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3111822808536745</v>
+        <v>0.3590213292973394</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2279464836940406</v>
+        <v>0.2285701686040315</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2119859745065943</v>
+        <v>0.2180785923624055</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2201295711387066</v>
+        <v>0.2274955629983985</v>
       </c>
       <c r="G11" s="5" t="inlineStr"/>
       <c r="H11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1799636868186978</v>
+        <v>0.1724324405543747</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04663013162176854</v>
+        <v>0.04747256670959003</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06146802489020087</v>
+        <v>0.0631288853823511</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1249573320105483</v>
+        <v>0.1017577723242398</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2723392784957056</v>
+        <v>0.2511307955813724</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1340619338838989</v>
+        <v>0.1330276516517625</v>
       </c>
     </row>
     <row r="12">
@@ -1022,38 +1022,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9114452762421479</v>
+        <v>0.9101099208466812</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.8011992538888578</v>
+        <v>0.7867032108959577</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.6757785644797243</v>
+        <v>0.6652598432057852</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.5117235324139799</v>
+        <v>0.5062545731987691</v>
       </c>
       <c r="G12" s="5" t="inlineStr"/>
       <c r="H12" s="5" t="n">
-        <v>0.2017560960082896</v>
+        <v>0.2363986243766232</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.6963746029852877</v>
+        <v>0.7109445171525699</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.1803606322915264</v>
+        <v>0.1735402427039393</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.257770046368231</v>
+        <v>0.283551940921066</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.403899831837225</v>
+        <v>0.382189965050382</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.6128051366253467</v>
+        <v>0.6011005706641611</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2724983707276893</v>
+        <v>0.2736597911728297</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.6296600042714176</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.3334056512009955</v>
+        <v>0.3334056512009954</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.178549562952298</v>
@@ -1101,7 +1101,7 @@
         <v>0.301009498765975</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1699486451424602</v>
+        <v>0.1699486451424601</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.490825084430385</v>
+        <v>0.507609895331716</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1207228539533538</v>
+        <v>0.1557202978180496</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3865096887570559</v>
+        <v>0.3674886187461757</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1898285434739375</v>
+        <v>0.1638090000785895</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.06882313201692662</v>
+        <v>0.06407677182647419</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0569491163569049</v>
+        <v>0.05320848999107038</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03419607290734986</v>
+        <v>0.03426632214874297</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04671964467964011</v>
+        <v>0.04575767943254083</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2232639134200714</v>
+        <v>0.2138632380151217</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1217437009871099</v>
+        <v>0.1210195034912676</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1841536525056834</v>
+        <v>0.1787000090603412</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1045936589930794</v>
+        <v>0.1129281943926697</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9391383607465823</v>
+        <v>0.9382902103173233</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5584110851402534</v>
+        <v>0.5595908239792492</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.829269259191066</v>
+        <v>0.8249082944562364</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.5193313421610696</v>
+        <v>0.5158599528404026</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3214301038508037</v>
+        <v>0.3315716168085586</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2952600111138395</v>
+        <v>0.298534699803166</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.324903438483194</v>
+        <v>0.352450767182403</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1752924942587996</v>
+        <v>0.170991001394805</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4918958809199119</v>
+        <v>0.4971274256153238</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3393021298804469</v>
+        <v>0.3431397801030986</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.465010286676185</v>
+        <v>0.4506465573326305</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2434339769393762</v>
+        <v>0.2546607170910057</v>
       </c>
     </row>
     <row r="16">
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3007160023611978</v>
+        <v>0.3045765600515319</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
@@ -1257,31 +1257,31 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.05767151480131844</v>
+        <v>0.05736550226370282</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.0857629959590421</v>
+        <v>0.08509190712710996</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0376688675276804</v>
+        <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1423923215942684</v>
+        <v>0.1341135075546067</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0972627507900287</v>
+        <v>0.09803736368577512</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.06000738962447014</v>
+        <v>0.06176892756348697</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.0211115281674027</v>
+        <v>0.02053858992829628</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9003988841901567</v>
+        <v>0.9003956160451595</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.6298418360323316</v>
+        <v>0.7412097062026313</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.686498614109382</v>
+        <v>0.8369903305567399</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.431745396956165</v>
+        <v>0.4440502782655739</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3631468780095026</v>
+        <v>0.3679461089950216</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.4321359655046076</v>
+        <v>0.4411782469814463</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3541161321742466</v>
+        <v>0.3511918837299121</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1177797708454261</v>
+        <v>0.1198988928695211</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.491844668330752</v>
+        <v>0.4851197902671725</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3953034835791816</v>
+        <v>0.41032925335235</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3617622565643908</v>
+        <v>0.3864505246221972</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1775986438817133</v>
+        <v>0.1848996310186275</v>
       </c>
     </row>
     <row r="19">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2135690363101544</v>
+        <v>0.2115404410865</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.293073642763254</v>
+        <v>0.2936838057451283</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1683900558050747</v>
+        <v>0.1651697284054624</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1773970551989395</v>
+        <v>0.1810564278656936</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.06579771589070446</v>
+        <v>0.06547457114547203</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.04952844076422089</v>
+        <v>0.04938608118749589</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.08603557420656746</v>
+        <v>0.0496911386567455</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.07628307917471962</v>
+        <v>0.06857656471695604</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1579858495704228</v>
+        <v>0.1538731081451613</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1875710792544713</v>
+        <v>0.1911341718517043</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1544568529219025</v>
+        <v>0.1594561875209219</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1347266331583085</v>
+        <v>0.1386134404270924</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.6822104538441676</v>
+        <v>0.6351587552213003</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.7637701464857219</v>
+        <v>0.763976081389571</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6188983636924962</v>
+        <v>0.6212325656868053</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4260516858630565</v>
+        <v>0.4181280858434707</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3733103881684107</v>
+        <v>0.4023246182167616</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3577363511708515</v>
+        <v>0.3560787873588679</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.494554241595985</v>
+        <v>0.4672537381366752</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.2276084872978921</v>
+        <v>0.2140390379496402</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.408911857386798</v>
+        <v>0.403212638336013</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.4886466060145493</v>
+        <v>0.4893931797553168</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.4426503158345219</v>
+        <v>0.4724208522173979</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.271897647631837</v>
+        <v>0.2788373096595558</v>
       </c>
     </row>
     <row r="22">
@@ -1485,7 +1485,7 @@
         <v>0.4961489677289157</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.2376718248574227</v>
+        <v>0.2376718248574228</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.07343667547218309</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.2260185423211797</v>
+        <v>0.1948124510075664</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2196970248885457</v>
+        <v>0.2317162217523396</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3002039133326547</v>
+        <v>0.3019923270450708</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.09575534021251687</v>
+        <v>0.1163451969613436</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.02188003992811146</v>
+        <v>0.02211140654507556</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.06658588311835537</v>
+        <v>0.07885256900992973</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1283146216222849</v>
+        <v>0.1312502455728164</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1021795335976109</v>
+        <v>0.100203734831947</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.1041004849354259</v>
+        <v>0.1058681198432044</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1658896820073029</v>
+        <v>0.1583550133451401</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2209652727151763</v>
+        <v>0.2221032037798586</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1178133766198808</v>
+        <v>0.1190900956938697</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6460910294037703</v>
+        <v>0.6455895892606611</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.6190420782904735</v>
+        <v>0.6124135108846066</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.6749894528267841</v>
+        <v>0.6824587029094079</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.4204406181812236</v>
+        <v>0.4313104956854436</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2007199285915829</v>
+        <v>0.2061238335978836</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.316919825679427</v>
+        <v>0.3094426031062604</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3697313636681157</v>
+        <v>0.3664405589179338</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2538394480805901</v>
+        <v>0.2418496141155382</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3135241969253789</v>
+        <v>0.2919768649195802</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3826454009219141</v>
+        <v>0.3688254952919244</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.4276647421300928</v>
+        <v>0.428321711983386</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2597577350549381</v>
+        <v>0.2613374593712265</v>
       </c>
     </row>
     <row r="25">
@@ -1621,7 +1621,7 @@
         <v>0.4910018501660262</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.565641012865816</v>
+        <v>0.5656410128658159</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.1344661978408777</v>
@@ -1633,7 +1633,7 @@
         <v>0.06990173386555265</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>0.1049581385042282</v>
+        <v>0.1049581385042281</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>0.2504237949005185</v>
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2583701244055878</v>
+        <v>0.260129795148836</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.09328790298673836</v>
+        <v>0.09961944676106936</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2842838541740069</v>
+        <v>0.2965769042301341</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.359498210658022</v>
+        <v>0.3808870558664026</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.05650052775899463</v>
+        <v>0.05158680324571558</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.06929464460925221</v>
+        <v>0.06821308433839579</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.01889515692211099</v>
+        <v>0.01859468607337828</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.06057228565296373</v>
+        <v>0.05398768766182178</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.1627401203754816</v>
+        <v>0.1562057617533922</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.1123157204536199</v>
+        <v>0.09818644544878277</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1246043416330212</v>
+        <v>0.1172212406847236</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.147483858994332</v>
+        <v>0.1403587957966952</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.5832733415187817</v>
+        <v>0.5752561245219464</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.5204957112578367</v>
+        <v>0.5263454739533405</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.6761205679276024</v>
+        <v>0.6845946200319897</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.7506701466639571</v>
+        <v>0.7399742962645793</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.2629310656781091</v>
+        <v>0.2753326722409431</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.3064142926748183</v>
+        <v>0.2892281394639323</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.2132647795990534</v>
+        <v>0.200217428515181</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.1762514722346943</v>
+        <v>0.1687103403509512</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.3658665089126428</v>
+        <v>0.3495566116359083</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.3216970273508117</v>
+        <v>0.3133122399046248</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.3251368530545912</v>
+        <v>0.3044816260540996</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.2901923518123757</v>
+        <v>0.2804468555014998</v>
       </c>
     </row>
     <row r="28">
@@ -1757,7 +1757,7 @@
         <v>0.4408665818086169</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>0.365151380960757</v>
+        <v>0.3651513809607569</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.1079269962717578</v>
@@ -1769,7 +1769,7 @@
         <v>0.1726305386341195</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.123685543040511</v>
+        <v>0.1236855430405111</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.241977515585097</v>
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.3990990758796476</v>
+        <v>0.3927919396533059</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.3103692095760891</v>
+        <v>0.3089694678916448</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3655085366249783</v>
+        <v>0.3668498396276057</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3045718989463566</v>
+        <v>0.3122270312119403</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.07467356715150032</v>
+        <v>0.07314970349650399</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.1134229944808263</v>
+        <v>0.1136438930899444</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1211395495811254</v>
+        <v>0.1278998762430598</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.09964488477208756</v>
+        <v>0.1000966237408437</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2010695570804684</v>
+        <v>0.1994395537853819</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.1978569495999382</v>
+        <v>0.194036284195201</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.2129083481841398</v>
+        <v>0.2094274602335464</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.1747921471458637</v>
+        <v>0.1762399383945872</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.572002725873816</v>
+        <v>0.5845679426895661</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.4840744276628496</v>
+        <v>0.4902804845628937</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.5241453321262012</v>
+        <v>0.5351558344725688</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.426903613844181</v>
+        <v>0.4240163811490971</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.1565721811640426</v>
+        <v>0.1534534152063914</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.2044377099238096</v>
+        <v>0.2009649326809232</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.2238356991038389</v>
+        <v>0.2270185971844159</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.1511605828903231</v>
+        <v>0.1529192559456574</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.2834284296269888</v>
+        <v>0.2890948580625488</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.2831162736561953</v>
+        <v>0.2809535389459317</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.3103278473538845</v>
+        <v>0.3070816339598057</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.228874395752197</v>
+        <v>0.230601547911895</v>
       </c>
     </row>
     <row r="31">
@@ -2144,40 +2144,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>837</v>
+        <v>894</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>10634</v>
+        <v>10594</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1896</v>
+        <v>1995</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1154</v>
+        <v>1172</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3286</v>
+        <v>3127</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>1766</v>
+        <v>1733</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>2987</v>
+        <v>3023</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>2785</v>
+        <v>2943</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>14630</v>
+        <v>15080</v>
       </c>
     </row>
     <row r="7">
@@ -2188,40 +2188,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>6706</v>
+        <v>6750</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5848</v>
+        <v>5016</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5763</v>
+        <v>5764</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>19496</v>
+        <v>19202</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>4773</v>
+        <v>5507</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>10109</v>
+        <v>10134</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>10599</v>
+        <v>11437</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>9488</v>
+        <v>9532</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>8923</v>
+        <v>9691</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>12301</v>
+        <v>12967</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>14107</v>
+        <v>13620</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>26629</v>
+        <v>26625</v>
       </c>
     </row>
     <row r="8">
@@ -2324,40 +2324,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3108</v>
+        <v>2963</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>7069</v>
+        <v>6619</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1038</v>
+        <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1868</v>
+        <v>2691</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2061</v>
+        <v>1139</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1250</v>
+        <v>1290</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>4077</v>
+        <v>4144</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>4785</v>
+        <v>4213</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>10647</v>
+        <v>11096</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3348</v>
+        <v>3520</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>8270</v>
+        <v>8323</v>
       </c>
     </row>
     <row r="11">
@@ -2368,40 +2368,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>11284</v>
+        <v>11314</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>18257</v>
+        <v>18530</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7607</v>
+        <v>6972</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>9287</v>
+        <v>9896</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>6436</v>
+        <v>7323</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>10900</v>
+        <v>10807</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>10683</v>
+        <v>11232</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>12618</v>
+        <v>12238</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>15340</v>
+        <v>15444</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>27317</v>
+        <v>27751</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>14887</v>
+        <v>14119</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>19249</v>
+        <v>19906</v>
       </c>
     </row>
     <row r="12">
@@ -2504,38 +2504,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3242</v>
+        <v>3741</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>3282</v>
+        <v>3291</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>3124</v>
+        <v>3214</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5551</v>
+        <v>5737</v>
       </c>
       <c r="G14" s="6" t="inlineStr"/>
       <c r="H14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>3118</v>
+        <v>2988</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>2080</v>
+        <v>2118</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>2838</v>
+        <v>2914</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>5110</v>
+        <v>4161</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>8732</v>
+        <v>8052</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>9361</v>
+        <v>9289</v>
       </c>
     </row>
     <row r="15">
@@ -2546,38 +2546,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>9496</v>
+        <v>9482</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11536</v>
+        <v>11328</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9958</v>
+        <v>9803</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>12905</v>
+        <v>12767</v>
       </c>
       <c r="G15" s="6" t="inlineStr"/>
       <c r="H15" s="6" t="n">
-        <v>5345</v>
+        <v>6263</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>12067</v>
+        <v>12319</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8046</v>
+        <v>7741</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>11900</v>
+        <v>13090</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>16516</v>
+        <v>15628</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>19649</v>
+        <v>19274</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>19027</v>
+        <v>19109</v>
       </c>
     </row>
     <row r="16">
@@ -2680,40 +2680,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>6572</v>
+        <v>6797</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>2325</v>
+        <v>3000</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>5395</v>
+        <v>5129</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3371</v>
+        <v>2909</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2197</v>
+        <v>2045</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>2248</v>
+        <v>2100</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1775</v>
+        <v>1738</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>10116</v>
+        <v>9690</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>7150</v>
+        <v>7107</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>7981</v>
+        <v>7745</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>5831</v>
+        <v>6295</v>
       </c>
     </row>
     <row r="19">
@@ -2724,40 +2724,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>12575</v>
+        <v>12564</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>10757</v>
+        <v>10779</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>11575</v>
+        <v>11514</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>9223</v>
+        <v>9161</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>10260</v>
+        <v>10584</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>11653</v>
+        <v>11782</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>9546</v>
+        <v>10355</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>6659</v>
+        <v>6496</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>22288</v>
+        <v>22525</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>19927</v>
+        <v>20153</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>20153</v>
+        <v>19531</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>13571</v>
+        <v>14197</v>
       </c>
     </row>
     <row r="20">
@@ -2860,7 +2860,7 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2598</v>
+        <v>2631</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
@@ -2869,31 +2869,31 @@
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2166</v>
+        <v>2150</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>910</v>
+        <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>3454</v>
+        <v>3253</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>3330</v>
+        <v>3356</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1746</v>
+        <v>1797</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>528</v>
+        <v>513</v>
       </c>
     </row>
     <row r="23">
@@ -2907,37 +2907,37 @@
         <v>7779</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>5653</v>
+        <v>6652</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>3386</v>
+        <v>4128</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>3539</v>
+        <v>3640</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>5672</v>
+        <v>5747</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>10916</v>
+        <v>11145</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>8555</v>
+        <v>8485</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1979</v>
+        <v>2014</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>11931</v>
+        <v>11768</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>13534</v>
+        <v>14048</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>10524</v>
+        <v>11242</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>4440</v>
+        <v>4622</v>
       </c>
     </row>
     <row r="24">
@@ -3040,40 +3040,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>3838</v>
+        <v>3801</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>5299</v>
+        <v>5310</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>2515</v>
+        <v>2467</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>4298</v>
+        <v>4386</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>1839</v>
+        <v>1830</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>2012</v>
+        <v>1162</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2452</v>
+        <v>2205</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>7255</v>
+        <v>7066</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>7384</v>
+        <v>7524</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>5919</v>
+        <v>6111</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>7595</v>
+        <v>7814</v>
       </c>
     </row>
     <row r="27">
@@ -3084,40 +3084,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>12259</v>
+        <v>11413</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>13810</v>
+        <v>13814</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>9243</v>
+        <v>9278</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>10322</v>
+        <v>10130</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>10436</v>
+        <v>11247</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>7614</v>
+        <v>7578</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>11567</v>
+        <v>10929</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>7317</v>
+        <v>6881</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>18778</v>
+        <v>18517</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>19235</v>
+        <v>19264</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>16964</v>
+        <v>18105</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>15328</v>
+        <v>15719</v>
       </c>
     </row>
     <row r="28">
@@ -3220,40 +3220,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>4229</v>
+        <v>3646</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>6443</v>
+        <v>6795</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>7934</v>
+        <v>7982</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>2738</v>
+        <v>3327</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>3287</v>
+        <v>3893</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>7227</v>
+        <v>7393</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>6669</v>
+        <v>6540</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>6026</v>
+        <v>6128</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>13054</v>
+        <v>12461</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>18286</v>
+        <v>18380</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>11058</v>
+        <v>11178</v>
       </c>
     </row>
     <row r="31">
@@ -3264,40 +3264,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>12090</v>
+        <v>12081</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>18154</v>
+        <v>17960</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>17840</v>
+        <v>18037</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>12021</v>
+        <v>12332</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>7863</v>
+        <v>8075</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>15645</v>
+        <v>15276</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>20825</v>
+        <v>20640</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>16568</v>
+        <v>15785</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>18149</v>
+        <v>16902</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>30112</v>
+        <v>29024</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>35391</v>
+        <v>35446</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>24381</v>
+        <v>24529</v>
       </c>
     </row>
     <row r="32">
@@ -3400,40 +3400,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>8397</v>
+        <v>8454</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>1943</v>
+        <v>2075</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>7032</v>
+        <v>7336</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>6983</v>
+        <v>7398</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>2687</v>
+        <v>2453</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>3249</v>
+        <v>3199</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>1052</v>
+        <v>1035</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>4138</v>
+        <v>3688</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>13029</v>
+        <v>12506</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>7606</v>
+        <v>6649</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>10019</v>
+        <v>9426</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>12939</v>
+        <v>12314</v>
       </c>
     </row>
     <row r="35">
@@ -3444,40 +3444,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>18956</v>
+        <v>18695</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>10839</v>
+        <v>10961</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>16725</v>
+        <v>16934</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>14581</v>
+        <v>14373</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>12505</v>
+        <v>13095</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>14368</v>
+        <v>13562</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>11873</v>
+        <v>11147</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>12039</v>
+        <v>11524</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>29291</v>
+        <v>27985</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>21784</v>
+        <v>21216</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>26144</v>
+        <v>24483</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>25459</v>
+        <v>24604</v>
       </c>
     </row>
     <row r="36">
@@ -3580,40 +3580,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>50517</v>
+        <v>49719</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>45366</v>
+        <v>45161</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>44394</v>
+        <v>44557</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>51510</v>
+        <v>52804</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>17244</v>
+        <v>16892</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>31705</v>
+        <v>31767</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>32388</v>
+        <v>34196</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>35597</v>
+        <v>35759</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>71883</v>
+        <v>71300</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>84227</v>
+        <v>82601</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>82783</v>
+        <v>81430</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>92004</v>
+        <v>92766</v>
       </c>
     </row>
     <row r="39">
@@ -3624,40 +3624,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>72403</v>
+        <v>73993</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>70756</v>
+        <v>71663</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>63662</v>
+        <v>64999</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>72198</v>
+        <v>71710</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>36156</v>
+        <v>35436</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>57146</v>
+        <v>56176</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>59845</v>
+        <v>60696</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>54001</v>
+        <v>54629</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>101326</v>
+        <v>103352</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>120522</v>
+        <v>119601</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>120662</v>
+        <v>119400</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>120471</v>
+        <v>121380</v>
       </c>
     </row>
     <row r="40">
